--- a/Datos/Ejercicio3.xlsx
+++ b/Datos/Ejercicio3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/ismael_diaz_upm_es/Documents/UPM/_Integracion de Procesos/2022-2023/Ejercicios en Pyomo/Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/ismael_diaz_upm_es/Documents/UPM/_Integracion de Procesos/2023-2024/IntegracionMUIQ/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{89EF8068-ED1B-487B-AFDE-6F9509C18518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814B2D9B-D630-44B6-BDD2-9EF3FEB318A3}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{89EF8068-ED1B-487B-AFDE-6F9509C18518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22AAF7F8-37AA-4EDD-9102-18682E4973D0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C16B5816-2497-4BFE-8E63-0791A1EE96D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C16B5816-2497-4BFE-8E63-0791A1EE96D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hot" sheetId="1" r:id="rId1"/>
@@ -424,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510FFC70-03E0-4B09-A13A-86A83C93F847}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,7 +482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -586,19 +586,6 @@
       <c r="K5" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -610,12 +597,12 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -630,7 +617,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -665,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -700,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -744,13 +731,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4304C6-2FE8-488D-BB85-18E0431FB7F5}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -765,7 +752,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -800,7 +787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
